--- a/resonance_testing/data/belt_tension_results.xlsx
+++ b/resonance_testing/data/belt_tension_results.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Node\Documents\GitHub\jdlongenecker\documentation\resonance_testing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshualongenecker/Github/jdlongenecker/documentation/resonance_testing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E568B7E4-7190-48B2-8A3A-B9F79CB6E789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DECBF28-4C82-254D-9172-02D35D4326B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="34100" windowHeight="23540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="9" state="hidden" r:id="rId1"/>
-    <sheet name="X-Tension" sheetId="7" r:id="rId2"/>
-    <sheet name="Y-Tension" sheetId="8" r:id="rId3"/>
-    <sheet name="Damping - X" sheetId="10" r:id="rId4"/>
-    <sheet name="Belt - X" sheetId="5" r:id="rId5"/>
-    <sheet name="Belt - Y" sheetId="6" r:id="rId6"/>
+    <sheet name="X-Tension (2)" sheetId="11" r:id="rId2"/>
+    <sheet name="X-Tension" sheetId="7" r:id="rId3"/>
+    <sheet name="Y-Tension" sheetId="8" r:id="rId4"/>
+    <sheet name="Damping - X" sheetId="10" r:id="rId5"/>
+    <sheet name="Belt - X" sheetId="5" r:id="rId6"/>
+    <sheet name="Belt - Y" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3149,6 +3150,1712 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Belt - X'!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$T$4:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$U$4:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.5768960000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.983887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.881537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.882406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0632060000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.583358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1986699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2583009999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.997679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4991460000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.164042</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86707999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70778300000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61995800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60084300000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55906199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CBA-E94B-BC52-93829E2628B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Belt - X'!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$T$4:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$V$4:$V$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="5">
+                  <c:v>1.633154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5268130000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3400699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7500279999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7626110000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.535666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1682039999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.882066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8317209999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6023559999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.150576</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8941030000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5048710000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3320190000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1985969999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1004100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CBA-E94B-BC52-93829E2628B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Belt - X'!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$T$4:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$W$4:$W$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="5">
+                  <c:v>1.4699770000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.784427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0578880000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5277539999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0621079999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1252019999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1347960000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1858789999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7752309999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.03803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6173469999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.600867</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9800120000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1693879999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4641359999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1330840000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7641119999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5858289999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2918319999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0346329999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7897959999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.599232</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4263859999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2991550000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1277900000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.003531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7CBA-E94B-BC52-93829E2628B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Belt - X'!$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$T$4:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$X$4:$X$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="15">
+                  <c:v>2.2711579999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.622668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9399320000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3837380000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1466649999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3084300000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1930820000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0235369999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.192672</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.569644</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.063734</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0593780000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.973427</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.932569</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9814920000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1762969999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7CBA-E94B-BC52-93829E2628B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Belt - X'!$Y$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$T$4:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$Y$4:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="20">
+                  <c:v>2.8029069999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2488169999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9384260000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4779039999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6092019999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5365070000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.424716999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.033365999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.928285000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.269964999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0651449999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9223020000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8002820000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8699300000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9678139999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2617779999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7CBA-E94B-BC52-93829E2628B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Belt - X'!$Z$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$T$4:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$Z$4:$Z$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="20">
+                  <c:v>2.3218130000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.582856</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9170250000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2773870000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8274729999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7609190000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2599150000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0102799999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.053788000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.74123</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.784369</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8759720000000009</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.11693</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9872480000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8632999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2186750000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7CBA-E94B-BC52-93829E2628B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Belt - X'!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$T$4:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Belt - X'!$AA$4:$AA$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="20">
+                  <c:v>2.0122650000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2246049999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4962110000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7155369999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.08263</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6056240000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4294250000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.6570070000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3444179999999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5199060000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.504019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.939776999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.553701</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.5798109999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.6769429999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.338311</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.1088040000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9031890000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1317300000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4769209999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0675349999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7CBA-E94B-BC52-93829E2628B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1112288256"/>
+        <c:axId val="1117503488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1112288256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1117503488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1117503488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1112288256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -5129,7 +6836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7459,7 +9166,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8046,6 +9753,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10149,6 +11896,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F3B8E78B-3736-0D4D-9D75-17B0A6B77627}">
   <sheetPr/>
@@ -10161,10 +12424,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2781488D-D02D-F947-AEA3-65552CAC0B8D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10172,6 +12435,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="194" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr/>
   <sheetViews>
@@ -10182,7 +12456,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CB2081E9-84A4-413B-8EB1-642A7890D52B}">
   <sheetPr/>
   <sheetViews>
@@ -10230,7 +12504,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8673969" cy="6284536"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8030203-C092-2943-AE11-FE3F3C8AC879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8673969" cy="6284536"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10259,7 +12566,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -10292,7 +12599,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -11478,6 +13785,292 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL129"/>
@@ -11486,13 +14079,13 @@
       <selection activeCell="AB46" activeCellId="1" sqref="Z46:Z53 AB46:AB53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U1" s="20" t="s">
         <v>21</v>
       </c>
@@ -11503,7 +14096,7 @@
       <c r="Z1" s="20"/>
       <c r="AA1" s="20"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -11572,7 +14165,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>0</v>
       </c>
@@ -11652,7 +14245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11736,7 +14329,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11820,7 +14413,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11907,7 +14500,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11994,7 +14587,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -12075,7 +14668,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12168,7 +14761,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -12261,7 +14854,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="I11">
         <v>37</v>
       </c>
@@ -12338,7 +14931,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="I12">
         <v>38</v>
       </c>
@@ -12415,7 +15008,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="I13" s="1">
         <v>39</v>
       </c>
@@ -12492,7 +15085,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="I14">
         <v>40</v>
       </c>
@@ -12569,7 +15162,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="I15">
         <v>41</v>
       </c>
@@ -12646,7 +15239,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="I16">
         <v>42</v>
       </c>
@@ -12723,7 +15316,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I17">
         <v>43</v>
       </c>
@@ -12800,7 +15393,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I18">
         <v>44</v>
       </c>
@@ -12874,7 +15467,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I19">
         <v>45</v>
       </c>
@@ -12955,7 +15548,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:38" x14ac:dyDescent="0.2">
       <c r="T20" s="3">
         <v>31</v>
       </c>
@@ -13007,7 +15600,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
         <v>11</v>
       </c>
@@ -13074,7 +15667,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
         <v>0</v>
       </c>
@@ -13153,7 +15746,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I23">
         <v>30</v>
       </c>
@@ -13223,7 +15816,7 @@
       <c r="AK23" s="17"/>
       <c r="AL23" s="17"/>
     </row>
-    <row r="24" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I24">
         <v>31</v>
       </c>
@@ -13308,7 +15901,7 @@
         <v>0.35247426826890832</v>
       </c>
     </row>
-    <row r="25" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I25">
         <v>32</v>
       </c>
@@ -13388,7 +15981,7 @@
         <v>0.33523051931464565</v>
       </c>
     </row>
-    <row r="26" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I26">
         <v>33</v>
       </c>
@@ -13471,7 +16064,7 @@
         <v>0.31646767615825211</v>
       </c>
     </row>
-    <row r="27" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I27" s="1">
         <v>34</v>
       </c>
@@ -13554,7 +16147,7 @@
         <v>0.30341855941399165</v>
       </c>
     </row>
-    <row r="28" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I28">
         <v>35</v>
       </c>
@@ -13637,7 +16230,7 @@
         <v>0.2847798808781431</v>
       </c>
     </row>
-    <row r="29" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I29">
         <v>36</v>
       </c>
@@ -13720,7 +16313,7 @@
         <v>0.26331753835928318</v>
       </c>
     </row>
-    <row r="30" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I30">
         <v>37</v>
       </c>
@@ -13803,7 +16396,7 @@
         <v>0.23757258765866929</v>
       </c>
     </row>
-    <row r="31" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I31">
         <v>38</v>
       </c>
@@ -13886,7 +16479,7 @@
         <v>0.19378961393440214</v>
       </c>
     </row>
-    <row r="32" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I32">
         <v>39</v>
       </c>
@@ -13969,7 +16562,7 @@
         <v>0.17309000031561031</v>
       </c>
     </row>
-    <row r="33" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I33">
         <v>40</v>
       </c>
@@ -14052,7 +16645,7 @@
         <v>0.16205173093532629</v>
       </c>
     </row>
-    <row r="34" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I34">
         <v>41</v>
       </c>
@@ -14135,7 +16728,7 @@
         <v>0.15427382771474404</v>
       </c>
     </row>
-    <row r="35" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I35">
         <v>42</v>
       </c>
@@ -14204,7 +16797,7 @@
         <v>0.15117005451563961</v>
       </c>
     </row>
-    <row r="36" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I36">
         <v>43</v>
       </c>
@@ -14279,7 +16872,7 @@
         <v>0.15391027401924595</v>
       </c>
     </row>
-    <row r="37" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I37">
         <v>44</v>
       </c>
@@ -14354,7 +16947,7 @@
         <v>0.16154426096682381</v>
       </c>
     </row>
-    <row r="38" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I38">
         <v>45</v>
       </c>
@@ -14429,7 +17022,7 @@
         <v>0.16974095140064907</v>
       </c>
     </row>
-    <row r="39" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:38" x14ac:dyDescent="0.2">
       <c r="T39" s="3">
         <v>50</v>
       </c>
@@ -14480,7 +17073,7 @@
         <v>0.1845746049913233</v>
       </c>
     </row>
-    <row r="40" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
         <v>12</v>
       </c>
@@ -14533,7 +17126,7 @@
         <v>0.20229814887797948</v>
       </c>
     </row>
-    <row r="41" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I41" t="s">
         <v>0</v>
       </c>
@@ -14604,7 +17197,7 @@
         <v>0.22580350937240048</v>
       </c>
     </row>
-    <row r="42" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I42">
         <v>20</v>
       </c>
@@ -14675,7 +17268,7 @@
         <v>0.24598240173002933</v>
       </c>
     </row>
-    <row r="43" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I43">
         <v>21</v>
       </c>
@@ -14746,7 +17339,7 @@
         <v>0.26814678409032472</v>
       </c>
     </row>
-    <row r="44" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I44">
         <v>22</v>
       </c>
@@ -14817,7 +17410,7 @@
         <v>0.28547970612102469</v>
       </c>
     </row>
-    <row r="45" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I45">
         <v>23</v>
       </c>
@@ -14843,7 +17436,7 @@
         <v>4.4779039999999997</v>
       </c>
     </row>
-    <row r="46" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I46" s="1">
         <v>24</v>
       </c>
@@ -14878,7 +17471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I47">
         <v>25</v>
       </c>
@@ -14920,7 +17513,7 @@
         <v>0.31128640318234513</v>
       </c>
     </row>
-    <row r="48" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I48">
         <v>26</v>
       </c>
@@ -14971,7 +17564,7 @@
         <v>0.25785531156469838</v>
       </c>
     </row>
-    <row r="49" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I49">
         <v>27</v>
       </c>
@@ -15022,7 +17615,7 @@
         <v>0.21091227030479889</v>
       </c>
     </row>
-    <row r="50" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I50">
         <v>28</v>
       </c>
@@ -15073,7 +17666,7 @@
         <v>0.15379156298021626</v>
       </c>
     </row>
-    <row r="51" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I51">
         <v>29</v>
       </c>
@@ -15124,7 +17717,7 @@
         <v>0.15055051591491944</v>
       </c>
     </row>
-    <row r="52" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I52">
         <v>30</v>
       </c>
@@ -15175,7 +17768,7 @@
         <v>0.15228622596829317</v>
       </c>
     </row>
-    <row r="53" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I53">
         <v>31</v>
       </c>
@@ -15226,7 +17819,7 @@
         <v>0.15116851378922511</v>
       </c>
     </row>
-    <row r="54" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I54">
         <v>32</v>
       </c>
@@ -15264,7 +17857,7 @@
         <v>2.2753260000000002</v>
       </c>
     </row>
-    <row r="55" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I55">
         <v>33</v>
       </c>
@@ -15302,7 +17895,7 @@
         <v>2.5555560000000002</v>
       </c>
     </row>
-    <row r="56" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I56">
         <v>34</v>
       </c>
@@ -15340,7 +17933,7 @@
         <v>2.8021159999999998</v>
       </c>
     </row>
-    <row r="57" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:28" x14ac:dyDescent="0.2">
       <c r="I57">
         <v>35</v>
       </c>
@@ -15378,7 +17971,7 @@
         <v>3.05768</v>
       </c>
     </row>
-    <row r="58" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:28" x14ac:dyDescent="0.2">
       <c r="S58">
         <v>24.5</v>
       </c>
@@ -15392,7 +17985,7 @@
         <v>3.2471519999999998</v>
       </c>
     </row>
-    <row r="59" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:28" x14ac:dyDescent="0.2">
       <c r="N59" t="s">
         <v>19</v>
       </c>
@@ -15412,7 +18005,7 @@
         <v>3.2177250000000002</v>
       </c>
     </row>
-    <row r="60" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:28" x14ac:dyDescent="0.2">
       <c r="N60" t="s">
         <v>0</v>
       </c>
@@ -15438,7 +18031,7 @@
         <v>3.114906</v>
       </c>
     </row>
-    <row r="61" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:28" x14ac:dyDescent="0.2">
       <c r="N61">
         <v>35</v>
       </c>
@@ -15464,7 +18057,7 @@
         <v>3.1229849999999999</v>
       </c>
     </row>
-    <row r="62" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:28" x14ac:dyDescent="0.2">
       <c r="N62">
         <v>36</v>
       </c>
@@ -15490,7 +18083,7 @@
         <v>3.1009899999999999</v>
       </c>
     </row>
-    <row r="63" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:28" x14ac:dyDescent="0.2">
       <c r="N63">
         <v>37</v>
       </c>
@@ -15516,7 +18109,7 @@
         <v>3.1475420000000001</v>
       </c>
     </row>
-    <row r="64" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:28" x14ac:dyDescent="0.2">
       <c r="N64">
         <v>38</v>
       </c>
@@ -15542,7 +18135,7 @@
         <v>3.285812</v>
       </c>
     </row>
-    <row r="65" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N65">
         <v>39</v>
       </c>
@@ -15568,7 +18161,7 @@
         <v>3.6613959999999999</v>
       </c>
     </row>
-    <row r="66" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N66">
         <v>40</v>
       </c>
@@ -15594,7 +18187,7 @@
         <v>4.2612030000000001</v>
       </c>
     </row>
-    <row r="67" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N67">
         <v>41</v>
       </c>
@@ -15620,7 +18213,7 @@
         <v>4.9607190000000001</v>
       </c>
     </row>
-    <row r="68" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N68">
         <v>42</v>
       </c>
@@ -15646,7 +18239,7 @@
         <v>5.4090530000000001</v>
       </c>
     </row>
-    <row r="69" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N69">
         <v>43</v>
       </c>
@@ -15672,7 +18265,7 @@
         <v>5.5160039999999997</v>
       </c>
     </row>
-    <row r="70" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N70">
         <v>44</v>
       </c>
@@ -15698,7 +18291,7 @@
         <v>5.6355820000000003</v>
       </c>
     </row>
-    <row r="71" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N71" s="1">
         <v>45</v>
       </c>
@@ -15724,7 +18317,7 @@
         <v>5.60832</v>
       </c>
     </row>
-    <row r="72" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N72">
         <v>46</v>
       </c>
@@ -15750,7 +18343,7 @@
         <v>5.568295</v>
       </c>
     </row>
-    <row r="73" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N73">
         <v>47</v>
       </c>
@@ -15776,7 +18369,7 @@
         <v>5.2909379999999997</v>
       </c>
     </row>
-    <row r="74" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N74">
         <v>48</v>
       </c>
@@ -15802,7 +18395,7 @@
         <v>4.9891969999999999</v>
       </c>
     </row>
-    <row r="75" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N75">
         <v>49</v>
       </c>
@@ -15828,7 +18421,7 @@
         <v>4.5554509999999997</v>
       </c>
     </row>
-    <row r="76" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N76">
         <v>50</v>
       </c>
@@ -15854,7 +18447,7 @@
         <v>4.4262689999999996</v>
       </c>
     </row>
-    <row r="77" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="14:22" x14ac:dyDescent="0.2">
       <c r="S77">
         <v>34</v>
       </c>
@@ -15868,7 +18461,7 @@
         <v>4.0153790000000003</v>
       </c>
     </row>
-    <row r="78" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N78" t="s">
         <v>23</v>
       </c>
@@ -15888,7 +18481,7 @@
         <v>3.672396</v>
       </c>
     </row>
-    <row r="79" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N79" t="s">
         <v>0</v>
       </c>
@@ -15914,7 +18507,7 @@
         <v>3.396274</v>
       </c>
     </row>
-    <row r="80" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N80">
         <v>35</v>
       </c>
@@ -15940,7 +18533,7 @@
         <v>3.1062180000000001</v>
       </c>
     </row>
-    <row r="81" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N81">
         <v>36</v>
       </c>
@@ -15966,7 +18559,7 @@
         <v>2.9425479999999999</v>
       </c>
     </row>
-    <row r="82" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N82">
         <v>37</v>
       </c>
@@ -15992,7 +18585,7 @@
         <v>2.9089839999999998</v>
       </c>
     </row>
-    <row r="83" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N83">
         <v>38</v>
       </c>
@@ -16018,7 +18611,7 @@
         <v>2.7466219999999999</v>
       </c>
     </row>
-    <row r="84" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N84">
         <v>39</v>
       </c>
@@ -16044,7 +18637,7 @@
         <v>2.5541610000000001</v>
       </c>
     </row>
-    <row r="85" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N85">
         <v>40</v>
       </c>
@@ -16070,7 +18663,7 @@
         <v>2.362968</v>
       </c>
     </row>
-    <row r="86" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N86">
         <v>41</v>
       </c>
@@ -16096,7 +18689,7 @@
         <v>2.2668689999999998</v>
       </c>
     </row>
-    <row r="87" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N87">
         <v>42</v>
       </c>
@@ -16122,7 +18715,7 @@
         <v>2.1490079999999998</v>
       </c>
     </row>
-    <row r="88" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N88">
         <v>43</v>
       </c>
@@ -16148,7 +18741,7 @@
         <v>2.0494819999999998</v>
       </c>
     </row>
-    <row r="89" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N89">
         <v>44</v>
       </c>
@@ -16174,7 +18767,7 @@
         <v>1.9157189999999999</v>
       </c>
     </row>
-    <row r="90" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N90">
         <v>45</v>
       </c>
@@ -16188,7 +18781,7 @@
         <v>10.504019</v>
       </c>
     </row>
-    <row r="91" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N91" s="1">
         <v>46</v>
       </c>
@@ -16202,7 +18795,7 @@
         <v>10.939776999999999</v>
       </c>
     </row>
-    <row r="92" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N92">
         <v>47</v>
       </c>
@@ -16216,7 +18809,7 @@
         <v>10.553701</v>
       </c>
     </row>
-    <row r="93" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N93">
         <v>48</v>
       </c>
@@ -16230,7 +18823,7 @@
         <v>9.5798109999999994</v>
       </c>
     </row>
-    <row r="94" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N94">
         <v>49</v>
       </c>
@@ -16244,7 +18837,7 @@
         <v>8.6769429999999996</v>
       </c>
     </row>
-    <row r="95" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N95">
         <v>50</v>
       </c>
@@ -16258,7 +18851,7 @@
         <v>7.338311</v>
       </c>
     </row>
-    <row r="96" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N96">
         <v>51</v>
       </c>
@@ -16272,7 +18865,7 @@
         <v>6.1088040000000001</v>
       </c>
     </row>
-    <row r="97" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N97">
         <v>52</v>
       </c>
@@ -16286,7 +18879,7 @@
         <v>4.9031890000000002</v>
       </c>
     </row>
-    <row r="98" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N98">
         <v>53</v>
       </c>
@@ -16300,7 +18893,7 @@
         <v>4.1317300000000001</v>
       </c>
     </row>
-    <row r="99" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N99">
         <v>54</v>
       </c>
@@ -16314,7 +18907,7 @@
         <v>3.4769209999999999</v>
       </c>
     </row>
-    <row r="100" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N100">
         <v>55</v>
       </c>
@@ -16328,7 +18921,7 @@
         <v>3.0675349999999999</v>
       </c>
     </row>
-    <row r="102" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N102" t="s">
         <v>24</v>
       </c>
@@ -16336,7 +18929,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="103" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N103" t="s">
         <v>0</v>
       </c>
@@ -16350,7 +18943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N104">
         <v>20</v>
       </c>
@@ -16364,7 +18957,7 @@
         <v>1.4699770000000001</v>
       </c>
     </row>
-    <row r="105" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N105">
         <v>21</v>
       </c>
@@ -16378,7 +18971,7 @@
         <v>1.784427</v>
       </c>
     </row>
-    <row r="106" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N106">
         <v>22</v>
       </c>
@@ -16392,7 +18985,7 @@
         <v>2.0578880000000002</v>
       </c>
     </row>
-    <row r="107" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N107">
         <v>23</v>
       </c>
@@ -16406,7 +18999,7 @@
         <v>2.5277539999999998</v>
       </c>
     </row>
-    <row r="108" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N108">
         <v>24</v>
       </c>
@@ -16420,7 +19013,7 @@
         <v>3.0621079999999998</v>
       </c>
     </row>
-    <row r="109" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N109">
         <v>25</v>
       </c>
@@ -16434,7 +19027,7 @@
         <v>3.1252019999999998</v>
       </c>
     </row>
-    <row r="110" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N110">
         <v>26</v>
       </c>
@@ -16448,7 +19041,7 @@
         <v>3.1347960000000001</v>
       </c>
     </row>
-    <row r="111" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N111">
         <v>27</v>
       </c>
@@ -16462,7 +19055,7 @@
         <v>3.1858789999999999</v>
       </c>
     </row>
-    <row r="112" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N112">
         <v>28</v>
       </c>
@@ -16476,7 +19069,7 @@
         <v>3.7752309999999998</v>
       </c>
     </row>
-    <row r="113" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N113">
         <v>29</v>
       </c>
@@ -16490,7 +19083,7 @@
         <v>5.03803</v>
       </c>
     </row>
-    <row r="114" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N114">
         <v>30</v>
       </c>
@@ -16504,7 +19097,7 @@
         <v>5.6173469999999996</v>
       </c>
     </row>
-    <row r="115" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N115">
         <v>31</v>
       </c>
@@ -16518,7 +19111,7 @@
         <v>5.600867</v>
       </c>
     </row>
-    <row r="116" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N116">
         <v>32</v>
       </c>
@@ -16532,7 +19125,7 @@
         <v>4.9800120000000003</v>
       </c>
     </row>
-    <row r="117" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N117">
         <v>33</v>
       </c>
@@ -16546,7 +19139,7 @@
         <v>4.1693879999999996</v>
       </c>
     </row>
-    <row r="118" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N118">
         <v>34</v>
       </c>
@@ -16560,7 +19153,7 @@
         <v>3.4641359999999999</v>
       </c>
     </row>
-    <row r="119" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N119">
         <v>35</v>
       </c>
@@ -16574,7 +19167,7 @@
         <v>3.1330840000000002</v>
       </c>
     </row>
-    <row r="120" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N120">
         <v>36</v>
       </c>
@@ -16588,7 +19181,7 @@
         <v>2.7641119999999999</v>
       </c>
     </row>
-    <row r="121" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N121">
         <v>37</v>
       </c>
@@ -16602,7 +19195,7 @@
         <v>2.5858289999999999</v>
       </c>
     </row>
-    <row r="122" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N122">
         <v>38</v>
       </c>
@@ -16616,7 +19209,7 @@
         <v>2.2918319999999999</v>
       </c>
     </row>
-    <row r="123" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N123">
         <v>39</v>
       </c>
@@ -16630,7 +19223,7 @@
         <v>2.0346329999999999</v>
       </c>
     </row>
-    <row r="124" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N124">
         <v>40</v>
       </c>
@@ -16644,7 +19237,7 @@
         <v>1.7897959999999999</v>
       </c>
     </row>
-    <row r="125" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N125">
         <v>41</v>
       </c>
@@ -16658,7 +19251,7 @@
         <v>1.599232</v>
       </c>
     </row>
-    <row r="126" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N126">
         <v>42</v>
       </c>
@@ -16672,7 +19265,7 @@
         <v>1.4263859999999999</v>
       </c>
     </row>
-    <row r="127" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N127">
         <v>43</v>
       </c>
@@ -16686,7 +19279,7 @@
         <v>1.2991550000000001</v>
       </c>
     </row>
-    <row r="128" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N128">
         <v>44</v>
       </c>
@@ -16700,7 +19293,7 @@
         <v>1.1277900000000001</v>
       </c>
     </row>
-    <row r="129" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N129">
         <v>45</v>
       </c>
@@ -16783,13 +19376,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -16797,7 +19390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1.5</v>
       </c>
@@ -16823,7 +19416,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -16861,7 +19454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-0.5</v>
       </c>
@@ -16899,7 +19492,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -16937,7 +19530,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -16975,7 +19568,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -17010,7 +19603,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -17045,7 +19638,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="S9">
         <v>15</v>
       </c>
@@ -17077,7 +19670,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="S10">
         <v>16</v>
       </c>
@@ -17109,7 +19702,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="S11">
         <v>17</v>
       </c>
@@ -17135,7 +19728,7 @@
         <v>1.5212209999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -17179,7 +19772,7 @@
         <v>1.3088599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -17241,7 +19834,7 @@
         <v>1.3732580000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -17303,7 +19896,7 @@
         <v>1.5230090000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -17365,7 +19958,7 @@
         <v>1.7592209999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -17427,7 +20020,7 @@
         <v>2.0115150000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -17489,7 +20082,7 @@
         <v>2.4396599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -17551,7 +20144,7 @@
         <v>2.8183229999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -17613,7 +20206,7 @@
         <v>2.9747970000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -17675,7 +20268,7 @@
         <v>3.3285369999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -17737,7 +20330,7 @@
         <v>3.8794200000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -17799,7 +20392,7 @@
         <v>4.5026970000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -17861,7 +20454,7 @@
         <v>4.6208450000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -17923,7 +20516,7 @@
         <v>4.5466009999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -17985,7 +20578,7 @@
         <v>4.3191670000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -18047,7 +20640,7 @@
         <v>4.3585830000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -18109,7 +20702,7 @@
         <v>4.4240050000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -18171,7 +20764,7 @@
         <v>4.520683</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -18233,7 +20826,7 @@
         <v>5.2697580000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -18295,7 +20888,7 @@
         <v>5.6651819999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -18357,7 +20950,7 @@
         <v>4.517976</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -18419,7 +21012,7 @@
         <v>4.1242580000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -18481,7 +21074,7 @@
         <v>3.774521</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -18543,7 +21136,7 @@
         <v>3.1244000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -18595,7 +21188,7 @@
         <v>2.8479130000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -18647,7 +21240,7 @@
         <v>2.5675219999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -18699,7 +21292,7 @@
         <v>2.3894630000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -18751,7 +21344,7 @@
         <v>2.151767</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -18803,7 +21396,7 @@
         <v>1.9776689999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
@@ -18855,7 +21448,7 @@
         <v>1.728011</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -18907,7 +21500,7 @@
         <v>1.3776029999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -18959,7 +21552,7 @@
         <v>1.0186999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
@@ -19011,7 +21604,7 @@
         <v>0.77077600000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
@@ -19063,7 +21656,7 @@
         <v>0.57859400000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -19089,7 +21682,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -19139,7 +21732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -19189,7 +21782,7 @@
         <v>0.46100200000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>11</v>
       </c>
@@ -19251,7 +21844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>12</v>
       </c>
@@ -19313,7 +21906,7 @@
         <v>0.16605700000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>13</v>
       </c>
@@ -19375,7 +21968,7 @@
         <v>0.15279400000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>14</v>
       </c>
@@ -19437,7 +22030,7 @@
         <v>0.14238000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>15</v>
       </c>
@@ -19499,7 +22092,7 @@
         <v>0.14507999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>16</v>
       </c>
@@ -19561,7 +22154,7 @@
         <v>0.17318500000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>17</v>
       </c>
@@ -19623,7 +22216,7 @@
         <v>0.28790399999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>18</v>
       </c>
@@ -19685,7 +22278,7 @@
         <v>0.262048</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>19</v>
       </c>
@@ -19747,7 +22340,7 @@
         <v>0.163941</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20</v>
       </c>
@@ -19809,7 +22402,7 @@
         <v>0.12420200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>21</v>
       </c>
@@ -19871,7 +22464,7 @@
         <v>0.12673300000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>22</v>
       </c>
@@ -19933,7 +22526,7 @@
         <v>0.16516</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>23</v>
       </c>
@@ -19995,7 +22588,7 @@
         <v>0.16680800000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>24</v>
       </c>
@@ -20057,7 +22650,7 @@
         <v>0.17013300000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>25</v>
       </c>
@@ -20119,7 +22712,7 @@
         <v>0.129968</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>26</v>
       </c>
@@ -20181,7 +22774,7 @@
         <v>0.13069900000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>27</v>
       </c>
@@ -20243,7 +22836,7 @@
         <v>0.15756800000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>28</v>
       </c>
@@ -20305,7 +22898,7 @@
         <v>0.222106</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>29</v>
       </c>
@@ -20367,7 +22960,7 @@
         <v>0.346999</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>30</v>
       </c>
@@ -20429,7 +23022,7 @@
         <v>0.43975799999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>31</v>
       </c>
@@ -20491,7 +23084,7 @@
         <v>0.56541300000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>32</v>
       </c>
@@ -20553,7 +23146,7 @@
         <v>0.56318000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>33</v>
       </c>
@@ -20615,7 +23208,7 @@
         <v>0.55500300000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>34</v>
       </c>
@@ -20677,7 +23270,7 @@
         <v>0.53846400000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>35</v>
       </c>
@@ -20739,7 +23332,7 @@
         <v>0.47586600000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>36</v>
       </c>
@@ -20801,7 +23394,7 @@
         <v>0.45375900000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>37</v>
       </c>
@@ -20863,7 +23456,7 @@
         <v>0.43323600000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38</v>
       </c>
@@ -20925,7 +23518,7 @@
         <v>0.40579100000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>39</v>
       </c>
@@ -20987,7 +23580,7 @@
         <v>0.407254</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>40</v>
       </c>
@@ -21049,7 +23642,7 @@
         <v>0.34072999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K79">
         <v>41</v>
       </c>
@@ -21087,7 +23680,7 @@
         <v>0.33582099999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K80">
         <v>42</v>
       </c>
@@ -21125,7 +23718,7 @@
         <v>0.32840200000000003</v>
       </c>
     </row>
-    <row r="81" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K81">
         <v>43</v>
       </c>
@@ -21163,7 +23756,7 @@
         <v>0.33872400000000003</v>
       </c>
     </row>
-    <row r="82" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K82">
         <v>44</v>
       </c>
@@ -21201,7 +23794,7 @@
         <v>0.34700599999999998</v>
       </c>
     </row>
-    <row r="83" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K83">
         <v>45</v>
       </c>
@@ -21239,7 +23832,7 @@
         <v>0.35272799999999999</v>
       </c>
     </row>
-    <row r="84" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K84">
         <v>46</v>
       </c>
@@ -21277,7 +23870,7 @@
         <v>0.34960400000000003</v>
       </c>
     </row>
-    <row r="85" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K85">
         <v>47</v>
       </c>
@@ -21315,7 +23908,7 @@
         <v>0.31313400000000002</v>
       </c>
     </row>
-    <row r="86" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K86">
         <v>48</v>
       </c>
@@ -21353,7 +23946,7 @@
         <v>0.26337300000000002</v>
       </c>
     </row>
-    <row r="87" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K87">
         <v>49</v>
       </c>
@@ -21391,7 +23984,7 @@
         <v>0.231798</v>
       </c>
     </row>
-    <row r="88" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K88">
         <v>50</v>
       </c>
@@ -21429,7 +24022,7 @@
         <v>0.23175799999999999</v>
       </c>
     </row>
-    <row r="89" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:24" x14ac:dyDescent="0.2">
       <c r="U89">
         <v>29.5</v>
       </c>
@@ -21443,7 +24036,7 @@
         <v>0.23977100000000001</v>
       </c>
     </row>
-    <row r="90" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:24" x14ac:dyDescent="0.2">
       <c r="U90">
         <v>30</v>
       </c>
@@ -21457,7 +24050,7 @@
         <v>0.23089899999999999</v>
       </c>
     </row>
-    <row r="91" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:24" x14ac:dyDescent="0.2">
       <c r="U91">
         <v>30.5</v>
       </c>
@@ -21471,7 +24064,7 @@
         <v>0.219502</v>
       </c>
     </row>
-    <row r="92" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:24" x14ac:dyDescent="0.2">
       <c r="U92">
         <v>31</v>
       </c>
@@ -21485,7 +24078,7 @@
         <v>0.205843</v>
       </c>
     </row>
-    <row r="93" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:24" x14ac:dyDescent="0.2">
       <c r="U93">
         <v>31.5</v>
       </c>
@@ -21499,7 +24092,7 @@
         <v>0.17607900000000001</v>
       </c>
     </row>
-    <row r="94" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:24" x14ac:dyDescent="0.2">
       <c r="U94">
         <v>32</v>
       </c>
@@ -21513,7 +24106,7 @@
         <v>0.15942100000000001</v>
       </c>
     </row>
-    <row r="95" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:24" x14ac:dyDescent="0.2">
       <c r="U95">
         <v>32.5</v>
       </c>
@@ -21527,7 +24120,7 @@
         <v>0.15350900000000001</v>
       </c>
     </row>
-    <row r="96" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="11:24" x14ac:dyDescent="0.2">
       <c r="U96">
         <v>33</v>
       </c>
@@ -21541,7 +24134,7 @@
         <v>0.14018900000000001</v>
       </c>
     </row>
-    <row r="97" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U97">
         <v>33.5</v>
       </c>
@@ -21555,7 +24148,7 @@
         <v>0.13312599999999999</v>
       </c>
     </row>
-    <row r="98" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U98">
         <v>34</v>
       </c>
@@ -21569,7 +24162,7 @@
         <v>0.112944</v>
       </c>
     </row>
-    <row r="99" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U99">
         <v>34.5</v>
       </c>
@@ -21583,7 +24176,7 @@
         <v>0.10578600000000001</v>
       </c>
     </row>
-    <row r="100" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U100">
         <v>35</v>
       </c>
@@ -21597,7 +24190,7 @@
         <v>9.715E-2</v>
       </c>
     </row>
-    <row r="101" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U101">
         <v>35.5</v>
       </c>
@@ -21611,7 +24204,7 @@
         <v>9.0800000000000006E-2</v>
       </c>
     </row>
-    <row r="102" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U102">
         <v>36</v>
       </c>
@@ -21625,7 +24218,7 @@
         <v>8.1699999999999995E-2</v>
       </c>
     </row>
-    <row r="103" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U103">
         <v>36.5</v>
       </c>
@@ -21639,7 +24232,7 @@
         <v>6.6810999999999995E-2</v>
       </c>
     </row>
-    <row r="104" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U104">
         <v>37</v>
       </c>
@@ -21653,7 +24246,7 @@
         <v>5.6214E-2</v>
       </c>
     </row>
-    <row r="105" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U105">
         <v>37.5</v>
       </c>
@@ -21667,7 +24260,7 @@
         <v>5.0514999999999997E-2</v>
       </c>
     </row>
-    <row r="106" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U106">
         <v>38</v>
       </c>
@@ -21681,7 +24274,7 @@
         <v>4.9061E-2</v>
       </c>
     </row>
-    <row r="107" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U107">
         <v>38.5</v>
       </c>
@@ -21695,7 +24288,7 @@
         <v>4.2151000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U108">
         <v>39</v>
       </c>
@@ -21709,7 +24302,7 @@
         <v>4.2181000000000003E-2</v>
       </c>
     </row>
-    <row r="109" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U109">
         <v>39.5</v>
       </c>
@@ -21723,7 +24316,7 @@
         <v>3.8275999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U110">
         <v>40</v>
       </c>
@@ -21737,7 +24330,7 @@
         <v>3.7970999999999998E-2</v>
       </c>
     </row>
-    <row r="111" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U111">
         <v>40.5</v>
       </c>
@@ -21751,7 +24344,7 @@
         <v>3.6346999999999997E-2</v>
       </c>
     </row>
-    <row r="112" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U112">
         <v>41</v>
       </c>
@@ -21765,7 +24358,7 @@
         <v>3.6206000000000002E-2</v>
       </c>
     </row>
-    <row r="113" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U113">
         <v>41.5</v>
       </c>
@@ -21779,7 +24372,7 @@
         <v>3.3068E-2</v>
       </c>
     </row>
-    <row r="114" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U114">
         <v>42</v>
       </c>
@@ -21793,7 +24386,7 @@
         <v>3.3547E-2</v>
       </c>
     </row>
-    <row r="115" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U115">
         <v>42.5</v>
       </c>
@@ -21807,7 +24400,7 @@
         <v>3.3218999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U116">
         <v>43</v>
       </c>
@@ -21821,7 +24414,7 @@
         <v>3.1845999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U117">
         <v>43.5</v>
       </c>
@@ -21835,7 +24428,7 @@
         <v>3.2395E-2</v>
       </c>
     </row>
-    <row r="118" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U118">
         <v>44</v>
       </c>
@@ -21849,7 +24442,7 @@
         <v>2.9769E-2</v>
       </c>
     </row>
-    <row r="119" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U119">
         <v>44.5</v>
       </c>
@@ -21863,7 +24456,7 @@
         <v>2.7233E-2</v>
       </c>
     </row>
-    <row r="120" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U120">
         <v>45</v>
       </c>
@@ -21877,7 +24470,7 @@
         <v>2.5541999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U121">
         <v>45.5</v>
       </c>
@@ -21891,7 +24484,7 @@
         <v>2.5978000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U122">
         <v>46</v>
       </c>
@@ -21905,7 +24498,7 @@
         <v>0.49848999999999999</v>
       </c>
     </row>
-    <row r="123" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U123">
         <v>46.5</v>
       </c>
@@ -21919,7 +24512,7 @@
         <v>2.5353000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U124">
         <v>47</v>
       </c>
@@ -21933,7 +24526,7 @@
         <v>2.1548000000000001E-2</v>
       </c>
     </row>
-    <row r="125" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U125">
         <v>47.5</v>
       </c>
@@ -21947,7 +24540,7 @@
         <v>1.9422999999999999E-2</v>
       </c>
     </row>
-    <row r="126" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U126">
         <v>48</v>
       </c>
@@ -21961,7 +24554,7 @@
         <v>1.6334999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U127">
         <v>48.5</v>
       </c>
@@ -21975,7 +24568,7 @@
         <v>1.4338E-2</v>
       </c>
     </row>
-    <row r="128" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U128">
         <v>49</v>
       </c>
@@ -21989,7 +24582,7 @@
         <v>1.3717999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U129">
         <v>49.5</v>
       </c>
@@ -22003,7 +24596,7 @@
         <v>1.3750999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="21:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U130">
         <v>50</v>
       </c>
